--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1597418.854745633</v>
+        <v>1668946.742647311</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6701460.861448962</v>
+        <v>7141341.75978014</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287.3337046832096</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>150.0869070309797</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -713,7 +715,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -832,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>82.98375949801711</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -865,22 +867,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>37.66198189501403</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -896,7 +898,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -905,7 +907,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>224.6764067756117</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>319.1961608433398</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1056,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>57.24387488545689</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>110.7686101742743</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>354.0397351737492</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>50.77901812020955</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1303,13 +1305,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>47.59708018839045</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>173.2701958403808</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1382,13 +1384,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>110.0654298202298</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>274.9579016710582</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>2.669536049219416</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1901,10 +1903,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2014,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>42.31835596290409</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>186.810132212935</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2242,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.931852632353</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2536,10 +2538,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2719,16 +2721,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>68.51355369736906</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2761,16 +2763,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303381</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2953,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3004,7 +3006,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>2.73831248582095</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3190,10 +3192,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429501</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>167.0049711185318</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3481,7 +3483,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>116.2748171257525</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>4.42727174638332</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>160.3422776017191</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>326.8715430934767</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>47.59708018839068</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>337.2709815416388</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>313.7451392166883</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4043,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>103.0767555432924</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4150,10 +4152,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>77.3404072963411</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1342.050951843433</v>
+        <v>1874.83396633247</v>
       </c>
       <c r="C2" t="n">
-        <v>1319.190625897137</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D2" t="n">
         <v>1299.938409122541</v>
@@ -4331,25 +4333,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>572.914647509062</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>1123.5801824935</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4361,19 +4363,19 @@
         <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V2" t="n">
-        <v>1641.263477976562</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W2" t="n">
-        <v>1641.263477976562</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X2" t="n">
-        <v>1633.583883184714</v>
+        <v>1891.938792588301</v>
       </c>
       <c r="Y2" t="n">
-        <v>1632.287017180008</v>
+        <v>1890.641926583596</v>
       </c>
     </row>
     <row r="3">
@@ -4407,19 +4409,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>866.8612493132769</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L3" t="n">
+        <v>751.8547856608809</v>
+      </c>
+      <c r="M3" t="n">
         <v>1302.520320645319</v>
       </c>
-      <c r="M3" t="n">
-        <v>1853.185855629757</v>
-      </c>
       <c r="N3" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O3" t="n">
         <v>1853.185855629757</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.7067844524004</v>
+        <v>1067.705058372565</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>895.7324952514812</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>732.4157223782519</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>566.2075165311054</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>394.3457423056658</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>228.0887725998979</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4486,19 +4488,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4513,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1934.53329137545</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1934.53329137545</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1652.821823983478</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="W4" t="n">
-        <v>1614.779418028919</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="X4" t="n">
-        <v>1372.215521474724</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="Y4" t="n">
-        <v>1145.872753164466</v>
+        <v>1257.871027084631</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1178.769506719272</v>
+        <v>568.8670150191532</v>
       </c>
       <c r="C5" t="n">
-        <v>751.8687767325725</v>
+        <v>546.0066890728574</v>
       </c>
       <c r="D5" t="n">
-        <v>328.5761559175728</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>306.6396201058344</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
         <v>79.69375467592363</v>
@@ -4574,13 +4576,13 @@
         <v>667.4947029893171</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>667.4947029893171</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
         <v>1768.825772958194</v>
@@ -4592,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>1798.123593847295</v>
       </c>
       <c r="W5" t="n">
-        <v>1607.594331807357</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="X5" t="n">
-        <v>1195.874332975104</v>
+        <v>990.0122453153889</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.577466970398</v>
+        <v>584.6749752702792</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4646,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>201.1892506764427</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
+        <v>316.1957143288386</v>
+      </c>
+      <c r="M6" t="n">
         <v>751.8547856608809</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>1302.520320645319</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>955.8175733480448</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>783.8450102269608</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="D7" t="n">
-        <v>620.5282373537315</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4759,16 +4761,16 @@
         <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1484.213795394888</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1484.213795394888</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1372.326310370368</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1145.98354206011</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>891.2873795073754</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="C8" t="n">
-        <v>868.4270535610796</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D8" t="n">
-        <v>445.1344327460798</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>423.1978969343414</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>402.1141191641457</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4802,52 +4804,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>2059.098288819458</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1724.152608635864</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1716.473013844015</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1311.135743798905</v>
+        <v>2165.939720175367</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.5937430873255</v>
+        <v>717.8575411161469</v>
       </c>
       <c r="C10" t="n">
-        <v>648.5937430873255</v>
+        <v>545.8849779950629</v>
       </c>
       <c r="D10" t="n">
-        <v>648.5937430873255</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2176.833393686224</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1933.494045912124</v>
       </c>
       <c r="U10" t="n">
-        <v>1589.377844055815</v>
+        <v>1933.494045912124</v>
       </c>
       <c r="V10" t="n">
-        <v>1307.666376663844</v>
+        <v>1651.782578520152</v>
       </c>
       <c r="W10" t="n">
-        <v>1307.666376663844</v>
+        <v>1376.930174692665</v>
       </c>
       <c r="X10" t="n">
-        <v>1065.102480109649</v>
+        <v>1134.366278138471</v>
       </c>
       <c r="Y10" t="n">
-        <v>838.7597117993912</v>
+        <v>908.0235098282126</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2468.184063897751</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2041.283333911051</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.990713096051</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>1192.013773243908</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>766.8895914333086</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>715.2263527642958</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1515.667965162099</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="M11" t="n">
-        <v>1515.667965162099</v>
+        <v>2182.474813090443</v>
       </c>
       <c r="N11" t="n">
-        <v>2316.109577559901</v>
+        <v>3158.725871577144</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>4003.870521727956</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2975.752615436019</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2975.752615436019</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2579.361265736366</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2468.184063897751</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2468.184063897751</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763832</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L12" t="n">
-        <v>608.7826918167198</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="M12" t="n">
-        <v>608.7826918167198</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N12" t="n">
-        <v>1409.224304214523</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>478.9271847585218</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C13" t="n">
-        <v>478.9271847585218</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="D13" t="n">
-        <v>478.9271847585218</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E13" t="n">
-        <v>478.9271847585218</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W13" t="n">
-        <v>947.8338496229746</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2699530687797</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.9271847585218</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>801.7864626898374</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>801.7864626898374</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>801.7864626898374</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>801.7864626898374</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>801.7864626898374</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
-        <v>397.4474002792861</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679215</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>832.7826876461991</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>1633.224300044002</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>2433.665912441805</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="P14" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2292.970335480043</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>1896.57898578039</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>1484.858986948137</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>1079.521716903027</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>1136.821252174186</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N15" t="n">
-        <v>1873.369781077302</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>649.0622322393868</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>649.0622322393868</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>649.0622322393868</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541296</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1954.717216822994</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>1674.532768323298</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V16" t="n">
-        <v>1392.821300931327</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>1117.96889710384</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>875.4050005496448</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>649.0622322393868</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5549,7 +5551,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
         <v>3777.607131232208</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>775.6620294727279</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>603.6894663516439</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>440.3726934784146</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.48047715319</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.734663049246</v>
+        <v>1790.689676197778</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.170766495052</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.8279981847936</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,19 +5755,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>2019.640305074347</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1744.78790124686</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>850.1944999357522</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C25" t="n">
-        <v>850.1944999357522</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2176.752350469914</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1933.413002695814</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1653.228554196118</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1371.517086804147</v>
       </c>
       <c r="W25" t="n">
-        <v>1260.306816359498</v>
+        <v>1096.66468297666</v>
       </c>
       <c r="X25" t="n">
-        <v>1260.306816359498</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y25" t="n">
-        <v>1033.96404804924</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1007.532766690843</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6309,10 +6311,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1910.990343986338</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3438.986156927658</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C28" t="n">
-        <v>3267.013593806574</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D28" t="n">
-        <v>3103.696820933345</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E28" t="n">
-        <v>3103.696820933345</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F28" t="n">
-        <v>3103.696820933345</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G28" t="n">
-        <v>3103.696820933345</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H28" t="n">
         <v>3034.491211138023</v>
@@ -6409,25 +6411,25 @@
         <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="U28" t="n">
-        <v>4654.622661723635</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="V28" t="n">
-        <v>4372.911194331664</v>
+        <v>4951.828802806542</v>
       </c>
       <c r="W28" t="n">
-        <v>4098.058790504177</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X28" t="n">
-        <v>3855.494893949982</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y28" t="n">
-        <v>3629.152125639724</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="29">
@@ -6479,10 +6481,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4573.117879057176</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.4203922683193</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C31" t="n">
-        <v>201.4478291472353</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D31" t="n">
-        <v>201.4478291472353</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E31" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803849</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6780,25 +6782,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>692.7876399741681</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1782.102586447038</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1782.102586447038</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427964</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C34" t="n">
-        <v>2986.82914530688</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D34" t="n">
-        <v>2934.722642878299</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004482</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450287</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140029</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7017,25 +7019,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>692.7876399741681</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1408.985357012666</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1873.130833875445</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>855.9100933510683</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>683.9375302299843</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>683.9375302299843</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E37" t="n">
-        <v>517.7293243828378</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F37" t="n">
-        <v>345.8675501573982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1542.018283751469</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1267.165879923982</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>1024.601983369787</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>1024.601983369787</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7190,10 +7192,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>516.5477476675582</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>516.5477476675582</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>350.3395418204117</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>350.3395418204117</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1079.521716903027</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>652.6209869163276</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>490.6590903489346</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>64.68215049679215</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>64.68215049679215</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679215</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>1142.793917289187</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>1142.793917289187</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>1943.23552968699</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>1943.23552968699</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>2069.742766177496</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335424</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2292.970335480043</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>1896.57898578039</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>1484.858986948137</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>1079.521716903027</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>526.7633817320166</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N42" t="n">
-        <v>1327.204994129819</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O42" t="n">
-        <v>1327.204994129819</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1327.204994129819</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>786.1193253398437</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C43" t="n">
-        <v>614.1467622187597</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="D43" t="n">
-        <v>450.8299893455304</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="E43" t="n">
-        <v>284.6217834983839</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="F43" t="n">
-        <v>112.7600092729444</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="G43" t="n">
-        <v>112.7600092729444</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="H43" t="n">
-        <v>112.7600092729444</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>2001.75583013582</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U43" t="n">
-        <v>2001.75583013582</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.044362743849</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W43" t="n">
-        <v>1445.191958916362</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.628062362167</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y43" t="n">
-        <v>976.2852940519094</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1248.548521942028</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>1248.548521942028</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>1248.548521942028</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>822.5715820898859</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>397.4474002792861</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>780.1904584722912</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.582485657916</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M44" t="n">
-        <v>1059.582485657916</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N44" t="n">
-        <v>1860.024098055718</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O44" t="n">
-        <v>2660.465710453521</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P44" t="n">
-        <v>2660.465710453521</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2754.827044480653</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2397.337629606903</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>2000.94627990725</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>1589.226281074997</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>1589.226281074997</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K45" t="n">
-        <v>655.1670770651317</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L45" t="n">
-        <v>1455.608689462935</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="M45" t="n">
-        <v>1873.369781077302</v>
+        <v>3914.532297476635</v>
       </c>
       <c r="N45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>982.4200598011171</v>
+        <v>1124.059229422212</v>
       </c>
       <c r="C46" t="n">
-        <v>810.4474966800331</v>
+        <v>952.0866663011282</v>
       </c>
       <c r="D46" t="n">
-        <v>647.1307238068038</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E46" t="n">
-        <v>480.9225179596573</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F46" t="n">
-        <v>309.0607437342177</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>142.8037740284498</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2198.056564597094</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>2198.056564597094</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="U46" t="n">
-        <v>2198.056564597094</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="V46" t="n">
-        <v>1916.345097205123</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="W46" t="n">
-        <v>1641.492693377636</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="X46" t="n">
-        <v>1398.928796823441</v>
+        <v>1540.567966444536</v>
       </c>
       <c r="Y46" t="n">
-        <v>1172.586028513183</v>
+        <v>1314.225198134278</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7981,16 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>572.0660045132436</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>452.4414523720698</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>593.6187724716183</v>
@@ -8000,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8057,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L3" t="n">
-        <v>462.5747547263934</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
         <v>579.3245936279221</v>
@@ -8070,7 +8072,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8140,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8222,16 +8224,16 @@
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8292,22 +8294,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>463.1564485244919</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P8" t="n">
-        <v>86.31943126580316</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,19 +8531,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3630160154378</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>371.0330466836702</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
@@ -8553,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>692.8799566205706</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425247</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>468.2166828561537</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8769,25 +8771,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6696847347715</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>80.69671659425472</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>814.1711708663672</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659259</v>
+        <v>501.4423181932972</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9003,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>765.3314412469919</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9401,7 +9403,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9477,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>298.7446820670146</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,13 +9959,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1004.802661823039</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>464.8736204150517</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,13 +10430,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
@@ -10443,13 +10445,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>69.11270732058333</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>124.3756766890881</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>355.5991224937308</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10665,28 +10667,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>61.91484879908644</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>165.1760467201724</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>474.9037794053499</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11145,22 +11147,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>489.8454989317466</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,22 +11302,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>320.5262113069911</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>354.7093195917345</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11376,16 +11378,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>445.0776811329011</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>297.5373690237004</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>140.6919789775566</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>161.8765877394556</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>229.785523826308</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>53.32812537571792</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.332456392592007</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>73.84475210955809</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>163.7887810877132</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>71.9894918991925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>274.6442915288778</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.098167740202</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.25933790641315</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.6172179931341049</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>71.98949189919253</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.1671282623269</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>258.7174170051305</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>73.42412869296913</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25804,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>51.1738023887361</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.37889910697595</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>58.60684960120463</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>65.01789851058605</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>459013.6086656756</v>
+        <v>609562.3845052992</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459013.6086656756</v>
+        <v>609562.3845052992</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619029.5034098357</v>
+        <v>619029.5034098356</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619029.5034098356</v>
+        <v>619029.5034098357</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>619029.5034098356</v>
+        <v>619029.5034098357</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>459013.6086656756</v>
+        <v>609562.3845052992</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>459013.6086656754</v>
+        <v>609562.3845052992</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>422270.934308093</v>
       </c>
       <c r="D2" t="n">
-        <v>422270.9343080929</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="E2" t="n">
-        <v>302152.8212019907</v>
+        <v>401240.9763519656</v>
       </c>
       <c r="F2" t="n">
-        <v>302152.8212019908</v>
+        <v>401240.9763519657</v>
       </c>
       <c r="G2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.0422746492</v>
       </c>
       <c r="H2" t="n">
         <v>407472.0422746492</v>
       </c>
       <c r="I2" t="n">
+        <v>407472.042274649</v>
+      </c>
+      <c r="J2" t="n">
         <v>407472.0422746491</v>
       </c>
-      <c r="J2" t="n">
-        <v>407472.042274649</v>
-      </c>
       <c r="K2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="L2" t="n">
         <v>407472.0422746489</v>
-      </c>
-      <c r="L2" t="n">
-        <v>407472.0422746491</v>
       </c>
       <c r="M2" t="n">
         <v>407472.0422746491</v>
       </c>
       <c r="N2" t="n">
-        <v>407472.0422746489</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="O2" t="n">
-        <v>302152.8212019907</v>
+        <v>401240.9763519656</v>
       </c>
       <c r="P2" t="n">
-        <v>302152.8212019908</v>
+        <v>401240.9763519656</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,22 +26426,22 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>32409.76799618241</v>
+        <v>43077.56596046207</v>
       </c>
       <c r="F4" t="n">
-        <v>32409.76799618241</v>
+        <v>43077.56596046205</v>
       </c>
       <c r="G4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389558</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
@@ -26448,16 +26450,16 @@
         <v>43748.40045389557</v>
       </c>
       <c r="M4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389558</v>
       </c>
       <c r="N4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>32409.76799618241</v>
+        <v>43077.56596046205</v>
       </c>
       <c r="P4" t="n">
-        <v>32409.76799618241</v>
+        <v>43077.56596046206</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3044.210813471</v>
+        <v>3044.210813471116</v>
       </c>
       <c r="C6" t="n">
-        <v>189448.9442282083</v>
+        <v>189448.9442282082</v>
       </c>
       <c r="D6" t="n">
-        <v>189448.9442282082</v>
+        <v>189448.9442282084</v>
       </c>
       <c r="E6" t="n">
-        <v>145253.6676747841</v>
+        <v>74672.64466691011</v>
       </c>
       <c r="F6" t="n">
-        <v>220584.6188282463</v>
+        <v>282104.9322834712</v>
       </c>
       <c r="G6" t="n">
-        <v>157083.1798207834</v>
+        <v>278347.9575488425</v>
       </c>
       <c r="H6" t="n">
         <v>285973.5796323239</v>
       </c>
       <c r="I6" t="n">
+        <v>285973.5796323237</v>
+      </c>
+      <c r="J6" t="n">
+        <v>140439.9096975073</v>
+      </c>
+      <c r="K6" t="n">
+        <v>285973.5796323239</v>
+      </c>
+      <c r="L6" t="n">
+        <v>285973.5796323236</v>
+      </c>
+      <c r="M6" t="n">
+        <v>112843.0884266843</v>
+      </c>
+      <c r="N6" t="n">
         <v>285973.5796323238</v>
       </c>
-      <c r="J6" t="n">
-        <v>140439.9096975072</v>
-      </c>
-      <c r="K6" t="n">
-        <v>285973.5796323236</v>
-      </c>
-      <c r="L6" t="n">
-        <v>285973.5796323239</v>
-      </c>
-      <c r="M6" t="n">
-        <v>223099.64266695</v>
-      </c>
-      <c r="N6" t="n">
-        <v>285973.5796323236</v>
-      </c>
       <c r="O6" t="n">
-        <v>220584.6188282463</v>
+        <v>282104.9322834711</v>
       </c>
       <c r="P6" t="n">
-        <v>220584.6188282463</v>
+        <v>282104.932283471</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128.3161759654051</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>272.5448156558532</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>59.37454630891004</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>234.4418978941981</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27627,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>196.1965332168821</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>34.71835988167322</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>113.0089626044163</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>129.3696474143786</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>46.25593661269664</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27913,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>350.504879224449</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>120.836616817666</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>104.1124081743179</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34699,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>415.010189472638</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>556.2278131155941</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="L3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L3" t="n">
-        <v>440.0596680121639</v>
       </c>
       <c r="M3" t="n">
         <v>556.2278131155941</v>
@@ -34790,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34860,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34942,16 +34944,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,19 +35251,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>150.7519016821044</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>657.1153558257613</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>430.6413210459224</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35489,25 +35491,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>275.154598020542</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>57.59993608192674</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>775.8591284337443</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099018</v>
+        <v>464.0513588372731</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>743.9884130334502</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>981.7058813107108</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>47.34186611575466</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>86.80031487885682</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>319.4744478891327</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>127.7850873641483</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>437.3284175951186</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>466.7487184194187</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,22 +38022,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>282.2141688743681</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>318.5846449871364</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>421.9809006205731</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1668946.742647311</v>
+        <v>1668228.752532452</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760742</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7141341.75978014</v>
+        <v>7141341.759780141</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>150.0869070309797</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>254.9846023822597</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -825,19 +825,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>104.9037564455528</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.98375949801711</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -876,13 +876,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -901,13 +901,13 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>41.96586448766676</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>319.1961608433398</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1056,19 +1056,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>57.24387488545689</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>11.12043047005152</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1135,25 +1135,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>146.5653248725139</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.77901812020955</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>47.59708018839045</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>164.7047943182444</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>292.3236405495131</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>205.2226542384626</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>186.9176635037728</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>29.89949249262188</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1773,19 +1773,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>45.22125567436175</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1846,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1906,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2019,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>186.810132212935</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>210.7522035899942</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686744</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>104.9037564455521</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2718,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>35.56826410134468</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2727,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>115.1055716303381</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2961,10 +2961,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>2.73831248582095</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>218.9989885011891</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>68.38585200927804</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3508,7 +3508,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>116.2748171257525</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3754,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>326.8715430934767</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>51.58543740429393</v>
+        <v>98.15366458399244</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>103.0767555432924</v>
+        <v>106.01278178735</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4152,7 +4152,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4188,22 +4188,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1874.83396633247</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C2" t="n">
-        <v>1723.231029937541</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D2" t="n">
-        <v>1299.938409122541</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E2" t="n">
-        <v>873.9614692703988</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924753</v>
@@ -4333,49 +4333,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M2" t="n">
-        <v>1556.689382596036</v>
+        <v>572.914647509062</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.61838738015</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V2" t="n">
-        <v>1899.61838738015</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W2" t="n">
-        <v>1899.61838738015</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X2" t="n">
-        <v>1891.938792588301</v>
+        <v>955.1153740588602</v>
       </c>
       <c r="Y2" t="n">
-        <v>1890.641926583596</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>201.1892506764427</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>751.8547856608809</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M3" t="n">
-        <v>1302.520320645319</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N3" t="n">
-        <v>1302.520320645319</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1067.705058372565</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C4" t="n">
-        <v>895.7324952514812</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D4" t="n">
-        <v>732.4157223782519</v>
+        <v>150.4616153982907</v>
       </c>
       <c r="E4" t="n">
-        <v>566.2075165311054</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F4" t="n">
-        <v>394.3457423056658</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>228.0887725998979</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>1484.213795394889</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>1484.213795394889</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>1484.213795394889</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y4" t="n">
-        <v>1257.871027084631</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>568.8670150191532</v>
+        <v>555.2761281011831</v>
       </c>
       <c r="C5" t="n">
-        <v>546.0066890728574</v>
+        <v>532.4158021548873</v>
       </c>
       <c r="D5" t="n">
-        <v>122.7140682578577</v>
+        <v>513.1635853802916</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>87.18664552814914</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.4947029893171</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1218.160237973755</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>1768.825772958194</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>1798.123593847295</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>1401.732244147642</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X5" t="n">
-        <v>990.0122453153889</v>
+        <v>976.4213583974188</v>
       </c>
       <c r="Y5" t="n">
-        <v>584.6749752702792</v>
+        <v>571.0840883523091</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608809</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>717.8575411161469</v>
       </c>
       <c r="C7" t="n">
-        <v>210.7551947550154</v>
+        <v>545.8849779950629</v>
       </c>
       <c r="D7" t="n">
-        <v>210.7551947550154</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="E7" t="n">
-        <v>210.7551947550154</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7551947550154</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2213.678494411819</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1933.494045912124</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1651.782578520152</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1376.930174692665</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1134.366278138471</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>908.0235098282126</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2150.131759924241</v>
+        <v>312.8723936782581</v>
       </c>
       <c r="C8" t="n">
-        <v>1723.231029937541</v>
+        <v>290.0120677319623</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.938409122541</v>
+        <v>270.7598509573667</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>248.8233151456283</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>227.7395373754326</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>227.4408790052853</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,22 +4807,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>1696.494830002562</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462377</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>734.0176239744937</v>
       </c>
       <c r="Y8" t="n">
-        <v>2165.939720175367</v>
+        <v>328.6803539293841</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M9" t="n">
-        <v>323.6423572907505</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N9" t="n">
-        <v>669.8354755761777</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>717.8575411161469</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>545.8849779950629</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>382.5682051218336</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>216.3599992746871</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2176.833393686224</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1933.494045912124</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1933.494045912124</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1651.782578520152</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W10" t="n">
-        <v>1376.930174692665</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.366278138471</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="Y10" t="n">
-        <v>908.0235098282126</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H11" t="n">
         <v>134.9738161355189</v>
@@ -5047,16 +5047,16 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1178.188711671385</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.474813090443</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>3158.725871577144</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>4003.870521727956</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
         <v>4430.205429563419</v>
@@ -5117,22 +5117,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>962.2593607269207</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>962.2593607269207</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.283297448028</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.1560104286538</v>
+        <v>876.1450260381521</v>
       </c>
       <c r="C13" t="n">
-        <v>152.1834473075698</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="D13" t="n">
-        <v>100.0769448789901</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E13" t="n">
-        <v>100.0769448789901</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F13" t="n">
-        <v>100.0769448789901</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G13" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H13" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>1830.170476311557</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.081047832659</v>
+        <v>1548.459008919586</v>
       </c>
       <c r="W13" t="n">
-        <v>983.2286440051723</v>
+        <v>1273.606605092099</v>
       </c>
       <c r="X13" t="n">
-        <v>740.6647474509774</v>
+        <v>1066.310994750218</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.3219791407195</v>
+        <v>1066.310994750218</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721394</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734694</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.219720919694</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.242781067552</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F14" t="n">
-        <v>728.1185992569519</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G14" t="n">
-        <v>323.7795368464006</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>130.278452447295</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
@@ -5290,10 +5290,10 @@
         <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>4088.350919196421</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="O14" t="n">
-        <v>4547.761764445321</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P14" t="n">
         <v>4547.761764445321</v>
@@ -5305,25 +5305,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058034</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012924</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="15">
@@ -5369,10 +5369,10 @@
         <v>100.0769448789901</v>
       </c>
       <c r="N15" t="n">
-        <v>1019.283297448028</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>652.9060911334518</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>480.9335280123678</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>317.6167551391385</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5463,25 +5463,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292118</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292118</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292118</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1311.97872470997</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>1069.414828155775</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>843.0720598455175</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
         <v>2113.800768076616</v>
@@ -5515,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5554,13 +5554,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5676,49 +5676,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358265</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302473</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563994</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563994</v>
       </c>
       <c r="V19" t="n">
-        <v>2065.542080025265</v>
+        <v>1587.529878172023</v>
       </c>
       <c r="W19" t="n">
-        <v>1790.689676197778</v>
+        <v>1587.529878172023</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1344.965981617828</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076928</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M21" t="n">
-        <v>374.0002026854196</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N21" t="n">
-        <v>648.6278400003578</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O21" t="n">
-        <v>648.6278400003578</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5931,31 +5931,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6068,28 +6068,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2176.752350469914</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1933.413002695814</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1653.228554196118</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1371.517086804147</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1096.66468297666</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>854.1007864224655</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>627.7580181122075</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6305,28 +6305,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4017.903765402536</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281452</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5068.0970569786</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>5068.0970569786</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>5068.0970569786</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>4951.828802806542</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>4676.976398979054</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X28" t="n">
-        <v>4434.41250242486</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y28" t="n">
-        <v>4208.069734114601</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6548,13 +6548,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.8002552472883</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C31" t="n">
-        <v>431.8276921262043</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D31" t="n">
-        <v>268.510919252975</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6654,19 +6654,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1819.436760043265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.725292651294</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.872888823807</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X31" t="n">
-        <v>1020.308992269612</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y31" t="n">
-        <v>793.966223959354</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="32">
@@ -6715,13 +6715,13 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6785,13 +6785,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.8002552472883</v>
+        <v>825.2669071411556</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8276921262043</v>
+        <v>653.2943440200715</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>653.2943440200715</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>653.2943440200715</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>481.4325697946319</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>315.1756000888641</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>171.3793315970185</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6888,22 +6888,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>2099.621208542961</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>1819.436760043265</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.725292651294</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.872888823807</v>
+        <v>1484.339540717674</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.308992269612</v>
+        <v>1241.775644163479</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.966223959354</v>
+        <v>1015.432875853221</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4798.855966881186</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7019,19 +7019,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>357.9938188649342</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,40 +7162,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P38" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>446.1370507523521</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>2126.267936898555</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734694</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1579.219720919694</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>1153.242781067552</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>728.1185992569519</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>397.9453234049553</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4570.892110530337</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>5003.847243949504</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
@@ -7496,22 +7496,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M42" t="n">
-        <v>1019.283297448028</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="N42" t="n">
-        <v>1019.283297448028</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="P42" t="n">
-        <v>1908.7645754595</v>
+        <v>1653.073470000394</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.1560104286538</v>
+        <v>371.1946237414806</v>
       </c>
       <c r="C43" t="n">
-        <v>152.1834473075698</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="D43" t="n">
-        <v>152.1834473075698</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="E43" t="n">
-        <v>152.1834473075698</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="F43" t="n">
-        <v>152.1834473075698</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="G43" t="n">
-        <v>152.1834473075698</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="H43" t="n">
-        <v>152.1834473075698</v>
+        <v>199.2220606203966</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
@@ -7593,28 +7593,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T43" t="n">
-        <v>1819.976963724326</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U43" t="n">
-        <v>1539.792515224631</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V43" t="n">
-        <v>1258.081047832659</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W43" t="n">
-        <v>983.2286440051723</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X43" t="n">
-        <v>740.6647474509774</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y43" t="n">
-        <v>514.3219791407195</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
     <row r="44">
@@ -7648,25 +7648,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>3725.747460379525</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>4570.892110530337</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4570.892110530337</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
         <v>4886.290909067602</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>3914.532297476635</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>5003.847243949504</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O45" t="n">
-        <v>5003.847243949504</v>
+        <v>989.5582228904617</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1705.75593992896</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1124.059229422212</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="C46" t="n">
-        <v>952.0866663011282</v>
+        <v>811.2560808840883</v>
       </c>
       <c r="D46" t="n">
-        <v>847.9687314089136</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E46" t="n">
-        <v>681.7605255617672</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F46" t="n">
-        <v>509.8987513363276</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H46" t="n">
         <v>199.8455131387141</v>
@@ -7836,22 +7836,22 @@
         <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>2063.316311498426</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.131862998731</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.131862998731</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.131862998731</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X46" t="n">
-        <v>1540.567966444536</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="Y46" t="n">
-        <v>1314.225198134278</v>
+        <v>983.2286440051723</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>452.4414523720698</v>
+        <v>571.1852249800525</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>467.7777678727252</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.190801607238</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8218,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>571.1852249800525</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8303,19 +8303,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>463.1564485244919</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>259.9167409896189</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8455,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>268.1828480767084</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>371.0330466836702</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>468.2166828561537</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8774,16 +8774,16 @@
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>80.69671659425472</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8938,13 +8938,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>501.4423181932972</v>
+        <v>772.1208831718561</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9017,13 +9017,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>949.8342934347922</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O15" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>574.2427960500296</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9254,19 +9254,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9421,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>375.1268140734642</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,7 +9491,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>298.7446820670146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9503,7 +9503,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,31 +9716,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>848.7638096822445</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,16 +10196,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>104.5829721389275</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,16 +10433,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>104.5829721389275</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10600,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>355.5991224937308</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>280.6730777314198</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>772.395863235019</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10843,10 +10843,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,19 +10907,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>951.5880457335786</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>474.9037794053499</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,25 +11144,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>198.1730942227185</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,19 +11305,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>354.7093195917345</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11384,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>227.8062660976048</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>107.9720312369327</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>34.91560335019028</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>107.9720312369327</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4.648410051341621</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.3248681143132</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>53.32812537571792</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>13.32713703716115</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.98949189918905</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>63.52994056050434</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>126.1153410431523</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>163.7887810877132</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>274.6442915288778</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>59.89536421686228</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>30.38503056784874</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25332,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6172179931341049</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.98949189919253</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>122.499278133501</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>73.42412869296913</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>47.18544517283286</v>
+        <v>0.6172179931343464</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>58.60684960120463</v>
+        <v>55.67082335714696</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>609562.3845052992</v>
+        <v>609562.384505299</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619029.5034098356</v>
+        <v>619029.5034098357</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619029.5034098356</v>
+        <v>619029.5034098357</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619029.5034098357</v>
+        <v>619029.5034098356</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>619029.5034098357</v>
+        <v>619029.5034098356</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>619029.5034098357</v>
+        <v>619029.5034098356</v>
       </c>
     </row>
     <row r="13">
@@ -26316,43 +26316,43 @@
         <v>422270.934308093</v>
       </c>
       <c r="C2" t="n">
-        <v>422270.934308093</v>
+        <v>422270.9343080931</v>
       </c>
       <c r="D2" t="n">
-        <v>422270.9343080932</v>
+        <v>422270.9343080931</v>
       </c>
       <c r="E2" t="n">
+        <v>401240.9763519657</v>
+      </c>
+      <c r="F2" t="n">
         <v>401240.9763519656</v>
       </c>
-      <c r="F2" t="n">
-        <v>401240.9763519657</v>
-      </c>
       <c r="G2" t="n">
-        <v>407472.0422746492</v>
+        <v>407472.042274649</v>
       </c>
       <c r="H2" t="n">
-        <v>407472.0422746492</v>
+        <v>407472.0422746493</v>
       </c>
       <c r="I2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="J2" t="n">
         <v>407472.0422746491</v>
       </c>
       <c r="K2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.0422746488</v>
       </c>
       <c r="L2" t="n">
-        <v>407472.0422746489</v>
+        <v>407472.042274649</v>
       </c>
       <c r="M2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.042274649</v>
       </c>
       <c r="N2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.042274649</v>
       </c>
       <c r="O2" t="n">
-        <v>401240.9763519656</v>
+        <v>401240.9763519657</v>
       </c>
       <c r="P2" t="n">
         <v>401240.9763519656</v>
@@ -26426,16 +26426,16 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>43077.56596046207</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="F4" t="n">
         <v>43077.56596046205</v>
       </c>
       <c r="G4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="H4" t="n">
         <v>43748.40045389556</v>
-      </c>
-      <c r="H4" t="n">
-        <v>43748.40045389558</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
@@ -26444,19 +26444,19 @@
         <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="L4" t="n">
         <v>43748.40045389556</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>43748.40045389557</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43748.40045389558</v>
       </c>
       <c r="N4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>43077.56596046205</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="P4" t="n">
         <v>43077.56596046206</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3044.210813471116</v>
+        <v>3044.210813471</v>
       </c>
       <c r="C6" t="n">
-        <v>189448.9442282082</v>
+        <v>189448.9442282084</v>
       </c>
       <c r="D6" t="n">
         <v>189448.9442282084</v>
       </c>
       <c r="E6" t="n">
-        <v>74672.64466691011</v>
+        <v>74600.12757050979</v>
       </c>
       <c r="F6" t="n">
-        <v>282104.9322834712</v>
+        <v>282032.4151870707</v>
       </c>
       <c r="G6" t="n">
-        <v>278347.9575488425</v>
+        <v>278296.926886658</v>
       </c>
       <c r="H6" t="n">
-        <v>285973.5796323239</v>
+        <v>285922.5489701397</v>
       </c>
       <c r="I6" t="n">
-        <v>285973.5796323237</v>
+        <v>285922.5489701396</v>
       </c>
       <c r="J6" t="n">
-        <v>140439.9096975073</v>
+        <v>140388.8790353231</v>
       </c>
       <c r="K6" t="n">
-        <v>285973.5796323239</v>
+        <v>285922.5489701393</v>
       </c>
       <c r="L6" t="n">
-        <v>285973.5796323236</v>
+        <v>285922.5489701395</v>
       </c>
       <c r="M6" t="n">
-        <v>112843.0884266843</v>
+        <v>112792.0577644999</v>
       </c>
       <c r="N6" t="n">
-        <v>285973.5796323238</v>
+        <v>285922.5489701395</v>
       </c>
       <c r="O6" t="n">
-        <v>282104.9322834711</v>
+        <v>282032.4151870707</v>
       </c>
       <c r="P6" t="n">
-        <v>282104.932283471</v>
+        <v>282032.4151870706</v>
       </c>
     </row>
   </sheetData>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>272.5448156558532</v>
-      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>152.6181964616705</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>59.6423673431222</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>59.37454630891004</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,13 +27621,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>378.907075504827</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>34.71835988167322</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>113.0089626044163</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>229.7855238263075</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>148.3243698681917</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>350.504879224449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>120.836616817666</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>59.37454630891094</v>
       </c>
     </row>
     <row r="11">
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-2.495430374854276e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>533.7539620806207</v>
+      </c>
+      <c r="N2" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="M2" t="n">
-        <v>415.010189472638</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>444.605878150503</v>
+      </c>
+      <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M3" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115368</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>533.7539620806207</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>440.0596680121639</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O8" t="n">
-        <v>533.7539620806206</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>349.6900184701286</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>430.6413210459224</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
@@ -35494,16 +35494,16 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>57.59993608192674</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35658,13 +35658,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>464.0513588372731</v>
+        <v>734.729923815832</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>928.4912652212506</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="O15" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937778</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36141,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391566</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37320,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>319.4744478891327</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355872</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37563,10 +37563,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>928.4912652212506</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>437.3284175951186</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>175.42605593374</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,19 +38025,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>318.5846449871364</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38104,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
